--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,56 +535,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>19</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7-14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>19</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>When exceeding nnn,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7-9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,56 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7-14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>When exceeding nnn,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7-9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
